--- a/biology/Médecine/Myélinogénèse/Myélinogénèse.xlsx
+++ b/biology/Médecine/Myélinogénèse/Myélinogénèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9linog%C3%A9n%C3%A8se</t>
+          <t>Myélinogénèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myélinogénèse est le processus de synthèse de la myéline. Elle est à distinguer de la myélinisation des axones. Le processus de myélinogénèse est un produit du métabolisme enzymatique des cellules de Schwann qui entourent les axones neuronaux.
 La synthèse de la sphingomyéline nécessite le transfert enzymatique d'un groupe phosphocholine d'une phosphatidylcholine vers une ceramide. La première étape de la synthèse de sphinomyeline nécessite la condensation d'une L-serine et de palmitoyl-CoA. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>My%C3%A9linog%C3%A9n%C3%A8se</t>
+          <t>Myélinogénèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la biologie   Portail de la médecine                    </t>
